--- a/status-tracker.xlsx
+++ b/status-tracker.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\pivot-table-dashboards-reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021241F-D2E5-432F-A1E9-6DB04E980807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5324F8-A1FC-4F69-A518-FAE0C3110A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Section_number</t>
   </si>
@@ -45,15 +56,73 @@
     <t>PowerPivot and relational modeling</t>
   </si>
   <si>
-    <t>Introduction to Excel dashboards</t>
+    <t>Good!</t>
+  </si>
+  <si>
+    <t>This probably won't take the full 3 hours</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">idea </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how long some of these are going to take. I might need to actually practice 😭</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0205AFA2-55CC-4C05-B5DB-E756F411FC7B}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{0205AFA2-55CC-4C05-B5DB-E756F411FC7B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0205AFA2-55CC-4C05-B5DB-E756F411FC7B}" name="Table1" displayName="Table1" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{0205AFA2-55CC-4C05-B5DB-E756F411FC7B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5C9E7CD3-1F8F-4588-9845-FED744DB48FF}" name="Section_number"/>
     <tableColumn id="2" xr3:uid="{AA8C21A5-9776-4C9B-8478-9815607B1398}" name="Section_name"/>
@@ -375,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -405,6 +474,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -413,6 +485,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -421,13 +496,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
